--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.3378164371604</v>
+        <v>27.70991333333333</v>
       </c>
       <c r="H2">
-        <v>22.3378164371604</v>
+        <v>83.12974</v>
       </c>
       <c r="I2">
-        <v>0.4496375250280643</v>
+        <v>0.499916436778856</v>
       </c>
       <c r="J2">
-        <v>0.4496375250280643</v>
+        <v>0.4999164367788561</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>19.6713755898276</v>
+        <v>0.480739</v>
       </c>
       <c r="N2">
-        <v>19.6713755898276</v>
+        <v>1.442217</v>
       </c>
       <c r="O2">
-        <v>0.8354802860328532</v>
+        <v>0.01989190335837768</v>
       </c>
       <c r="P2">
-        <v>0.8354802860328532</v>
+        <v>0.01989190335837768</v>
       </c>
       <c r="Q2">
-        <v>439.4155769920068</v>
+        <v>13.32123602595333</v>
       </c>
       <c r="R2">
-        <v>439.4155769920068</v>
+        <v>119.89112423358</v>
       </c>
       <c r="S2">
-        <v>0.3756632880215514</v>
+        <v>0.009944289447669528</v>
       </c>
       <c r="T2">
-        <v>0.3756632880215514</v>
+        <v>0.00994428944766953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.3378164371604</v>
+        <v>27.70991333333333</v>
       </c>
       <c r="H3">
-        <v>22.3378164371604</v>
+        <v>83.12974</v>
       </c>
       <c r="I3">
-        <v>0.4496375250280643</v>
+        <v>0.499916436778856</v>
       </c>
       <c r="J3">
-        <v>0.4496375250280643</v>
+        <v>0.4999164367788561</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.87361514027572</v>
+        <v>19.80485166666667</v>
       </c>
       <c r="N3">
-        <v>3.87361514027572</v>
+        <v>59.41455500000001</v>
       </c>
       <c r="O3">
-        <v>0.1645197139671467</v>
+        <v>0.8194804153196195</v>
       </c>
       <c r="P3">
-        <v>0.1645197139671467</v>
+        <v>0.8194804153196195</v>
       </c>
       <c r="Q3">
-        <v>86.52810395168436</v>
+        <v>548.7907232628555</v>
       </c>
       <c r="R3">
-        <v>86.52810395168436</v>
+        <v>4939.1165093657</v>
       </c>
       <c r="S3">
-        <v>0.07397423700651293</v>
+        <v>0.4096717292366412</v>
       </c>
       <c r="T3">
-        <v>0.07397423700651293</v>
+        <v>0.4096717292366413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.0203175800208</v>
+        <v>27.70991333333333</v>
       </c>
       <c r="H4">
-        <v>19.0203175800208</v>
+        <v>83.12974</v>
       </c>
       <c r="I4">
-        <v>0.3828596472706758</v>
+        <v>0.499916436778856</v>
       </c>
       <c r="J4">
-        <v>0.3828596472706758</v>
+        <v>0.4999164367788561</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.6713755898276</v>
+        <v>3.881981</v>
       </c>
       <c r="N4">
-        <v>19.6713755898276</v>
+        <v>11.645943</v>
       </c>
       <c r="O4">
-        <v>0.8354802860328532</v>
+        <v>0.1606276813220029</v>
       </c>
       <c r="P4">
-        <v>0.8354802860328532</v>
+        <v>0.1606276813220029</v>
       </c>
       <c r="Q4">
-        <v>374.15581095439</v>
+        <v>107.5693570716466</v>
       </c>
       <c r="R4">
-        <v>374.15581095439</v>
+        <v>968.1242136448199</v>
       </c>
       <c r="S4">
-        <v>0.3198716876121415</v>
+        <v>0.08030041809454529</v>
       </c>
       <c r="T4">
-        <v>0.3198716876121415</v>
+        <v>0.08030041809454529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.0203175800208</v>
+        <v>19.365057</v>
       </c>
       <c r="H5">
-        <v>19.0203175800208</v>
+        <v>58.095171</v>
       </c>
       <c r="I5">
-        <v>0.3828596472706758</v>
+        <v>0.3493663143945636</v>
       </c>
       <c r="J5">
-        <v>0.3828596472706758</v>
+        <v>0.3493663143945637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.87361514027572</v>
+        <v>0.480739</v>
       </c>
       <c r="N5">
-        <v>3.87361514027572</v>
+        <v>1.442217</v>
       </c>
       <c r="O5">
-        <v>0.1645197139671467</v>
+        <v>0.01989190335837768</v>
       </c>
       <c r="P5">
-        <v>0.1645197139671467</v>
+        <v>0.01989190335837768</v>
       </c>
       <c r="Q5">
-        <v>73.67739015082103</v>
+        <v>9.309538137122999</v>
       </c>
       <c r="R5">
-        <v>73.67739015082103</v>
+        <v>83.78584323410699</v>
       </c>
       <c r="S5">
-        <v>0.06298795965853428</v>
+        <v>0.006949560962609252</v>
       </c>
       <c r="T5">
-        <v>0.06298795965853428</v>
+        <v>0.006949560962609252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.321474987352341</v>
+        <v>19.365057</v>
       </c>
       <c r="H6">
-        <v>8.321474987352341</v>
+        <v>58.095171</v>
       </c>
       <c r="I6">
-        <v>0.1675028277012599</v>
+        <v>0.3493663143945636</v>
       </c>
       <c r="J6">
-        <v>0.1675028277012599</v>
+        <v>0.3493663143945637</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.6713755898276</v>
+        <v>19.80485166666667</v>
       </c>
       <c r="N6">
-        <v>19.6713755898276</v>
+        <v>59.41455500000001</v>
       </c>
       <c r="O6">
-        <v>0.8354802860328532</v>
+        <v>0.8194804153196195</v>
       </c>
       <c r="P6">
-        <v>0.8354802860328532</v>
+        <v>0.8194804153196195</v>
       </c>
       <c r="Q6">
-        <v>163.6948599375638</v>
+        <v>383.5220814015451</v>
       </c>
       <c r="R6">
-        <v>163.6948599375638</v>
+        <v>3451.698732613906</v>
       </c>
       <c r="S6">
-        <v>0.1399453103991603</v>
+        <v>0.2862988524187418</v>
       </c>
       <c r="T6">
-        <v>0.1399453103991603</v>
+        <v>0.2862988524187418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.321474987352341</v>
+        <v>19.365057</v>
       </c>
       <c r="H7">
-        <v>8.321474987352341</v>
+        <v>58.095171</v>
       </c>
       <c r="I7">
-        <v>0.1675028277012599</v>
+        <v>0.3493663143945636</v>
       </c>
       <c r="J7">
-        <v>0.1675028277012599</v>
+        <v>0.3493663143945637</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.87361514027572</v>
+        <v>3.881981</v>
       </c>
       <c r="N7">
-        <v>3.87361514027572</v>
+        <v>11.645943</v>
       </c>
       <c r="O7">
-        <v>0.1645197139671467</v>
+        <v>0.1606276813220029</v>
       </c>
       <c r="P7">
-        <v>0.1645197139671467</v>
+        <v>0.1606276813220029</v>
       </c>
       <c r="Q7">
-        <v>32.23419150043373</v>
+        <v>75.17478333791699</v>
       </c>
       <c r="R7">
-        <v>32.23419150043373</v>
+        <v>676.5730500412529</v>
       </c>
       <c r="S7">
-        <v>0.02755751730209954</v>
+        <v>0.05611790101321264</v>
       </c>
       <c r="T7">
-        <v>0.02755751730209954</v>
+        <v>0.05611790101321264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.35412</v>
+      </c>
+      <c r="H8">
+        <v>25.06236</v>
+      </c>
+      <c r="I8">
+        <v>0.1507172488265804</v>
+      </c>
+      <c r="J8">
+        <v>0.1507172488265804</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.480739</v>
+      </c>
+      <c r="N8">
+        <v>1.442217</v>
+      </c>
+      <c r="O8">
+        <v>0.01989190335837768</v>
+      </c>
+      <c r="P8">
+        <v>0.01989190335837768</v>
+      </c>
+      <c r="Q8">
+        <v>4.016151294679999</v>
+      </c>
+      <c r="R8">
+        <v>36.14536165211999</v>
+      </c>
+      <c r="S8">
+        <v>0.002998052948098898</v>
+      </c>
+      <c r="T8">
+        <v>0.002998052948098898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.35412</v>
+      </c>
+      <c r="H9">
+        <v>25.06236</v>
+      </c>
+      <c r="I9">
+        <v>0.1507172488265804</v>
+      </c>
+      <c r="J9">
+        <v>0.1507172488265804</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.80485166666667</v>
+      </c>
+      <c r="N9">
+        <v>59.41455500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8194804153196195</v>
+      </c>
+      <c r="P9">
+        <v>0.8194804153196195</v>
+      </c>
+      <c r="Q9">
+        <v>165.4521074055334</v>
+      </c>
+      <c r="R9">
+        <v>1489.0689666498</v>
+      </c>
+      <c r="S9">
+        <v>0.1235098336642365</v>
+      </c>
+      <c r="T9">
+        <v>0.1235098336642365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.35412</v>
+      </c>
+      <c r="H10">
+        <v>25.06236</v>
+      </c>
+      <c r="I10">
+        <v>0.1507172488265804</v>
+      </c>
+      <c r="J10">
+        <v>0.1507172488265804</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.881981</v>
+      </c>
+      <c r="N10">
+        <v>11.645943</v>
+      </c>
+      <c r="O10">
+        <v>0.1606276813220029</v>
+      </c>
+      <c r="P10">
+        <v>0.1606276813220029</v>
+      </c>
+      <c r="Q10">
+        <v>32.43053511172</v>
+      </c>
+      <c r="R10">
+        <v>291.8748160054799</v>
+      </c>
+      <c r="S10">
+        <v>0.02420936221424496</v>
+      </c>
+      <c r="T10">
+        <v>0.02420936221424496</v>
       </c>
     </row>
   </sheetData>
